--- a/Ecrire Coder matrice et liens.xlsx
+++ b/Ecrire Coder matrice et liens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikafulop/Documents/GitHub/EcrireCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B576BA2F-57ED-1941-8CE5-561E202C3988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7CA436-F81A-B241-B0F4-09361AF6C6D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="940" windowWidth="26660" windowHeight="16420" xr2:uid="{2F054A5B-88D2-A042-B746-2A609EC2AA7F}"/>
+    <workbookView xWindow="8620" yWindow="460" windowWidth="25240" windowHeight="16320" xr2:uid="{2F054A5B-88D2-A042-B746-2A609EC2AA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ecrire</t>
   </si>
   <si>
-    <t>tracer</t>
-  </si>
-  <si>
     <t>signe</t>
   </si>
   <si>
@@ -63,22 +60,49 @@
     <t>tracer3</t>
   </si>
   <si>
-    <t>tracer =&gt;</t>
-  </si>
-  <si>
-    <t>indice =&gt;</t>
-  </si>
-  <si>
-    <t>anticiper =&gt;</t>
-  </si>
-  <si>
-    <t>programmer=&gt;</t>
-  </si>
-  <si>
     <t>coder</t>
   </si>
   <si>
-    <t xml:space="preserve"> chercher =&gt; </t>
+    <t>signe1</t>
+  </si>
+  <si>
+    <t>signe2</t>
+  </si>
+  <si>
+    <t>signe3</t>
+  </si>
+  <si>
+    <t>langue1</t>
+  </si>
+  <si>
+    <t>langue2</t>
+  </si>
+  <si>
+    <t>langue3</t>
+  </si>
+  <si>
+    <t>representer1</t>
+  </si>
+  <si>
+    <t>representer3</t>
+  </si>
+  <si>
+    <t>representer2</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>tracer -</t>
+  </si>
+  <si>
+    <t>signe -</t>
+  </si>
+  <si>
+    <t>indice -</t>
+  </si>
+  <si>
+    <t>/=</t>
   </si>
 </sst>
 </file>
@@ -430,81 +454,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCF47D9-1447-0F43-82AD-09F9769B6818}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
